--- a/Attributesheet_scoring.xlsx
+++ b/Attributesheet_scoring.xlsx
@@ -67,7 +67,7 @@
     <t>a250a6db99213211f333db7f328085ae277c680d2c7178c4bc65cab9cdab78aa</t>
   </si>
   <si>
-    <t>Provides Persistent ID of the seller / entity, where this is generated based on the below formula. Hash(PREFIX:&lt;Identity&gt;), Example: Hash(“GSTIN:22AAAAA0000A1Z5”), Hash(“PAN:XYZRN1234A”), Hash(“UIDAI:123412341234”) (in this order of availability of documents.</t>
+    <t>Provides Persistent ID of the seller / entity, where this is generated based on the below formula. Hash(PREFIX:&lt;Identity&gt;), Example: Hash(GSTIN:22AAAAA0000A1Z5), Hash(PAN:XYZRN1234A), Hash(UIDAI:123412341234) (in this order of availability of documents.</t>
   </si>
   <si>
     <r>
